--- a/runs/run294/NotionalETEOutput294.xlsx
+++ b/runs/run294/NotionalETEOutput294.xlsx
@@ -49,13 +49,13 @@
     <t>tUp</t>
   </si>
   <si>
-    <t>Missile_SOMERSAULT0_State_Update</t>
+    <t>Missile_BRAVER3_State_Update</t>
   </si>
   <si>
-    <t>MISSILE_SOMERSAULT0_29.MISSILE_SOMERSAULT0_29</t>
+    <t>MISSILE_BRAVER3_318.MISSILE_BRAVER3_318</t>
   </si>
   <si>
-    <t>MISSILE_SOMERSAULT0</t>
+    <t>MISSILE_BRAVER3</t>
   </si>
 </sst>
 </file>
@@ -480,10 +480,10 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>-1456.400937493591</v>
+        <v>-1465.633427262653</v>
       </c>
       <c r="J2">
-        <v>2083.111071653622</v>
+        <v>2081.198275733293</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -515,13 +515,13 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>-1519.228338010356</v>
+        <v>-1480.14521138105</v>
       </c>
       <c r="J3">
-        <v>1952.552285719701</v>
+        <v>1998.93616433227</v>
       </c>
       <c r="K3">
-        <v>289.5956461856989</v>
+        <v>290.7791480538702</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -550,13 +550,13 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>-1452.780765990699</v>
+        <v>-1472.483842814474</v>
       </c>
       <c r="J4">
-        <v>1869.819615025983</v>
+        <v>1930.964109571448</v>
       </c>
       <c r="K4">
-        <v>586.7836146832263</v>
+        <v>617.1244879579093</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -585,13 +585,13 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>-1386.705618146529</v>
+        <v>-1397.530155657235</v>
       </c>
       <c r="J5">
-        <v>1898.584834991514</v>
+        <v>1803.667791973217</v>
       </c>
       <c r="K5">
-        <v>898.9518720197131</v>
+        <v>844.2969666909104</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -620,13 +620,13 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>-1367.144977783598</v>
+        <v>-1321.514335493981</v>
       </c>
       <c r="J6">
-        <v>1742.965913046611</v>
+        <v>1737.983365074583</v>
       </c>
       <c r="K6">
-        <v>1167.739035257021</v>
+        <v>1166.04910116619</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -655,13 +655,13 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>-1347.491337677932</v>
+        <v>-1376.220525500965</v>
       </c>
       <c r="J7">
-        <v>1788.720181877545</v>
+        <v>1736.532448376763</v>
       </c>
       <c r="K7">
-        <v>1433.117802485372</v>
+        <v>1372.674067416385</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -690,13 +690,13 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>-1370.428246807259</v>
+        <v>-1318.784817583812</v>
       </c>
       <c r="J8">
-        <v>1742.06076313274</v>
+        <v>1786.944008646962</v>
       </c>
       <c r="K8">
-        <v>1579.321176991938</v>
+        <v>1612.870239353391</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -719,19 +719,19 @@
         <v>0</v>
       </c>
       <c r="G9">
-        <v>-102.362194653749</v>
+        <v>-95.48311434753521</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>-1256.618061724418</v>
+        <v>-1288.239014947291</v>
       </c>
       <c r="J9">
-        <v>1740.28538250883</v>
+        <v>1688.091575809393</v>
       </c>
       <c r="K9">
-        <v>1887.227944868828</v>
+        <v>1819.600674867144</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -751,22 +751,22 @@
         <v>160.142</v>
       </c>
       <c r="F10">
-        <v>227.1759646054427</v>
+        <v>212.0453343243297</v>
       </c>
       <c r="G10">
-        <v>-85.18558866314561</v>
+        <v>-86.60461615874695</v>
       </c>
       <c r="H10">
-        <v>891.1808343715911</v>
+        <v>833.1396925205933</v>
       </c>
       <c r="I10">
-        <v>-1274.622887635118</v>
+        <v>-1219.765702312325</v>
       </c>
       <c r="J10">
-        <v>1608.035703148935</v>
+        <v>1658.784306595649</v>
       </c>
       <c r="K10">
-        <v>2036.335907337209</v>
+        <v>1906.816392785716</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -786,22 +786,22 @@
         <v>161.142</v>
       </c>
       <c r="F11">
-        <v>169.3471889707354</v>
+        <v>160.5047388823632</v>
       </c>
       <c r="G11">
-        <v>-69.37371353254717</v>
+        <v>-65.87396511634971</v>
       </c>
       <c r="H11">
-        <v>1028.165925967589</v>
+        <v>1075.011103053778</v>
       </c>
       <c r="I11">
-        <v>-1163.199314436715</v>
+        <v>-1149.629284123395</v>
       </c>
       <c r="J11">
-        <v>1607.031764123881</v>
+        <v>1575.710905379984</v>
       </c>
       <c r="K11">
-        <v>2191.811253529748</v>
+        <v>2220.243006177752</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -821,22 +821,22 @@
         <v>162.142</v>
       </c>
       <c r="F12">
-        <v>146.6934234701381</v>
+        <v>139.9837858452028</v>
       </c>
       <c r="G12">
-        <v>-49.84795713234912</v>
+        <v>-50.14688636773045</v>
       </c>
       <c r="H12">
-        <v>1220.605338049661</v>
+        <v>1138.467343388156</v>
       </c>
       <c r="I12">
-        <v>-1126.484400110198</v>
+        <v>-1161.594932361033</v>
       </c>
       <c r="J12">
-        <v>1536.180218272446</v>
+        <v>1479.9714320323</v>
       </c>
       <c r="K12">
-        <v>2416.964042950204</v>
+        <v>2320.567239162347</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -856,22 +856,22 @@
         <v>163.142</v>
       </c>
       <c r="F13">
-        <v>120.4737647303922</v>
+        <v>120.9617689211701</v>
       </c>
       <c r="G13">
-        <v>-32.53550204497827</v>
+        <v>-32.83362165769984</v>
       </c>
       <c r="H13">
-        <v>1245.15684788933</v>
+        <v>1297.853773299086</v>
       </c>
       <c r="I13">
-        <v>-1136.484084703809</v>
+        <v>-1140.390554014721</v>
       </c>
       <c r="J13">
-        <v>1533.631971924926</v>
+        <v>1534.932518019288</v>
       </c>
       <c r="K13">
-        <v>2572.428040801581</v>
+        <v>2590.069460215038</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -891,22 +891,22 @@
         <v>164.142</v>
       </c>
       <c r="F14">
-        <v>104.7233915025894</v>
+        <v>106.0201384249224</v>
       </c>
       <c r="G14">
-        <v>-18.02364777392111</v>
+        <v>-17.93425697450412</v>
       </c>
       <c r="H14">
-        <v>1376.218049585048</v>
+        <v>1372.366349076521</v>
       </c>
       <c r="I14">
-        <v>-1081.797162217356</v>
+        <v>-1136.898491889251</v>
       </c>
       <c r="J14">
-        <v>1474.048548728594</v>
+        <v>1462.939319449775</v>
       </c>
       <c r="K14">
-        <v>2679.779660553384</v>
+        <v>2573.483407803399</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -926,22 +926,22 @@
         <v>165.142</v>
       </c>
       <c r="F15">
-        <v>100.1035701418136</v>
+        <v>96.6404989520294</v>
       </c>
       <c r="G15">
-        <v>-0.904249415767197</v>
+        <v>-0.9674911123961831</v>
       </c>
       <c r="H15">
-        <v>1333.810759644379</v>
+        <v>1436.823279949666</v>
       </c>
       <c r="I15">
-        <v>-1081.985154916565</v>
+        <v>-1092.965462592713</v>
       </c>
       <c r="J15">
-        <v>1345.52628667565</v>
+        <v>1370.214788891516</v>
       </c>
       <c r="K15">
-        <v>2824.592665091221</v>
+        <v>2653.751574450867</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -961,22 +961,22 @@
         <v>166.142</v>
       </c>
       <c r="F16">
-        <v>89.12386494726401</v>
+        <v>92.48600652987287</v>
       </c>
       <c r="G16">
-        <v>16.21975616516465</v>
+        <v>16.28531403992276</v>
       </c>
       <c r="H16">
-        <v>1446.705928485961</v>
+        <v>1402.862760954478</v>
       </c>
       <c r="I16">
-        <v>-1001.987422794092</v>
+        <v>-972.9043831441785</v>
       </c>
       <c r="J16">
-        <v>1321.092194049659</v>
+        <v>1323.525356518377</v>
       </c>
       <c r="K16">
-        <v>2951.025638695334</v>
+        <v>2897.62419430702</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -996,22 +996,22 @@
         <v>167.142</v>
       </c>
       <c r="F17">
-        <v>85.88806682201559</v>
+        <v>86.28596563244909</v>
       </c>
       <c r="G17">
-        <v>30.72290506919949</v>
+        <v>33.47405742914323</v>
       </c>
       <c r="H17">
-        <v>1512.785853418729</v>
+        <v>1397.047186862431</v>
       </c>
       <c r="I17">
-        <v>-1014.991293956634</v>
+        <v>-936.4978210521946</v>
       </c>
       <c r="J17">
-        <v>1312.385324124097</v>
+        <v>1266.507792605754</v>
       </c>
       <c r="K17">
-        <v>3088.738215240349</v>
+        <v>3011.396915531637</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1031,22 +1031,22 @@
         <v>168.142</v>
       </c>
       <c r="F18">
-        <v>82.0510569371725</v>
+        <v>77.8570345657495</v>
       </c>
       <c r="G18">
-        <v>50.34666381582722</v>
+        <v>47.11968217863744</v>
       </c>
       <c r="H18">
-        <v>1505.248469151484</v>
+        <v>1570.080625995095</v>
       </c>
       <c r="I18">
-        <v>-900.9462200311232</v>
+        <v>-887.5728022610552</v>
       </c>
       <c r="J18">
-        <v>1167.118471721998</v>
+        <v>1273.079656301011</v>
       </c>
       <c r="K18">
-        <v>3092.330981077716</v>
+        <v>3065.302915730066</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1066,22 +1066,22 @@
         <v>169.142</v>
       </c>
       <c r="F19">
-        <v>75.01667546640108</v>
+        <v>74.17546384090534</v>
       </c>
       <c r="G19">
-        <v>67.51576401580438</v>
+        <v>66.34846778214556</v>
       </c>
       <c r="H19">
-        <v>1463.468331246271</v>
+        <v>1484.118599559034</v>
       </c>
       <c r="I19">
-        <v>-886.3865347548845</v>
+        <v>-856.9007536581198</v>
       </c>
       <c r="J19">
-        <v>1187.913681157783</v>
+        <v>1123.715358747607</v>
       </c>
       <c r="K19">
-        <v>2966.401426808289</v>
+        <v>3120.226295296343</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1101,22 +1101,22 @@
         <v>170.142</v>
       </c>
       <c r="F20">
-        <v>75.37233034300715</v>
+        <v>77.56995577630762</v>
       </c>
       <c r="G20">
-        <v>83.48455521842899</v>
+        <v>78.62942627137139</v>
       </c>
       <c r="H20">
-        <v>1538.68041099405</v>
+        <v>1585.036577603534</v>
       </c>
       <c r="I20">
-        <v>-871.2933045046121</v>
+        <v>-826.7267852220583</v>
       </c>
       <c r="J20">
-        <v>1139.565570528114</v>
+        <v>1150.019903215415</v>
       </c>
       <c r="K20">
-        <v>3162.952296274602</v>
+        <v>3092.843371191669</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1136,22 +1136,22 @@
         <v>171.142</v>
       </c>
       <c r="F21">
-        <v>69.23119597922512</v>
+        <v>71.64595687047951</v>
       </c>
       <c r="G21">
-        <v>94.83910823102804</v>
+        <v>93.92268547648332</v>
       </c>
       <c r="H21">
-        <v>1531.01100569106</v>
+        <v>1615.948691745956</v>
       </c>
       <c r="I21">
-        <v>-773.5868186523877</v>
+        <v>-818.1890377488467</v>
       </c>
       <c r="J21">
-        <v>1022.751517764946</v>
+        <v>1060.761828663126</v>
       </c>
       <c r="K21">
-        <v>3289.269286128014</v>
+        <v>3142.065227998396</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -1171,22 +1171,22 @@
         <v>172.142</v>
       </c>
       <c r="F22">
-        <v>70.16920557844074</v>
+        <v>68.90230513503093</v>
       </c>
       <c r="G22">
-        <v>111.2209565853128</v>
+        <v>118.6240870779883</v>
       </c>
       <c r="H22">
-        <v>1603.015879344646</v>
+        <v>1540.724448233276</v>
       </c>
       <c r="I22">
-        <v>-750.3056910822659</v>
+        <v>-779.1647319339431</v>
       </c>
       <c r="J22">
-        <v>999.5981294251351</v>
+        <v>1038.509603951024</v>
       </c>
       <c r="K22">
-        <v>3323.968410061459</v>
+        <v>3160.351421481987</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -1206,22 +1206,22 @@
         <v>173.142</v>
       </c>
       <c r="F23">
-        <v>63.98567329976055</v>
+        <v>62.99710044671712</v>
       </c>
       <c r="G23">
-        <v>127.8126559230291</v>
+        <v>134.3645367156799</v>
       </c>
       <c r="H23">
-        <v>1628.695366341428</v>
+        <v>1554.040889559938</v>
       </c>
       <c r="I23">
-        <v>-701.5716505256393</v>
+        <v>-722.4901983738994</v>
       </c>
       <c r="J23">
-        <v>958.3736627802211</v>
+        <v>944.1253715547483</v>
       </c>
       <c r="K23">
-        <v>3296.837341701001</v>
+        <v>3256.838744816624</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -1241,22 +1241,22 @@
         <v>174.142</v>
       </c>
       <c r="F24">
-        <v>60.82273338658546</v>
+        <v>65.90151364778824</v>
       </c>
       <c r="G24">
-        <v>144.8310548542733</v>
+        <v>152.55864969892</v>
       </c>
       <c r="H24">
-        <v>1674.091298262626</v>
+        <v>1576.787403960153</v>
       </c>
       <c r="I24">
-        <v>-659.4437619456452</v>
+        <v>-673.775547769239</v>
       </c>
       <c r="J24">
-        <v>970.9807991184655</v>
+        <v>936.1341649439174</v>
       </c>
       <c r="K24">
-        <v>3076.403656108545</v>
+        <v>3249.185323683311</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1276,22 +1276,22 @@
         <v>175.142</v>
       </c>
       <c r="F25">
-        <v>60.43688765831112</v>
+        <v>59.35659684101808</v>
       </c>
       <c r="G25">
-        <v>158.0990371438537</v>
+        <v>172.1901789437075</v>
       </c>
       <c r="H25">
-        <v>1645.714304064477</v>
+        <v>1593.865746417994</v>
       </c>
       <c r="I25">
-        <v>-623.1362799675431</v>
+        <v>-593.2171440425155</v>
       </c>
       <c r="J25">
-        <v>838.7412725533767</v>
+        <v>889.731076042248</v>
       </c>
       <c r="K25">
-        <v>3071.542136411516</v>
+        <v>3112.493622056732</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -1311,22 +1311,22 @@
         <v>176.142</v>
       </c>
       <c r="F26">
-        <v>58.32195715827744</v>
+        <v>58.01818553610968</v>
       </c>
       <c r="G26">
-        <v>179.9889842617191</v>
+        <v>182.1363258138753</v>
       </c>
       <c r="H26">
-        <v>1678.681296643937</v>
+        <v>1609.84777005199</v>
       </c>
       <c r="I26">
-        <v>-537.0470881541352</v>
+        <v>-540.3175208049345</v>
       </c>
       <c r="J26">
-        <v>798.6134206754208</v>
+        <v>835.5919202456678</v>
       </c>
       <c r="K26">
-        <v>3157.189851621608</v>
+        <v>3094.093316305073</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -1346,22 +1346,22 @@
         <v>177.142</v>
       </c>
       <c r="F27">
-        <v>57.49804461027413</v>
+        <v>59.95809109347618</v>
       </c>
       <c r="G27">
-        <v>201.1460054346099</v>
+        <v>190.1892354388795</v>
       </c>
       <c r="H27">
-        <v>1650.884842216864</v>
+        <v>1656.275760601984</v>
       </c>
       <c r="I27">
-        <v>-468.767092973104</v>
+        <v>-515.9225546387976</v>
       </c>
       <c r="J27">
-        <v>821.5233722046943</v>
+        <v>787.2358440304381</v>
       </c>
       <c r="K27">
-        <v>2920.476207386315</v>
+        <v>3158.803117115176</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -1381,22 +1381,22 @@
         <v>178.142</v>
       </c>
       <c r="F28">
-        <v>53.99018640075023</v>
+        <v>54.72592869760884</v>
       </c>
       <c r="G28">
-        <v>209.4883146649324</v>
+        <v>209.7096479041906</v>
       </c>
       <c r="H28">
-        <v>1716.70772049383</v>
+        <v>1740.038666823354</v>
       </c>
       <c r="I28">
-        <v>-426.2524300288658</v>
+        <v>-449.7134366309999</v>
       </c>
       <c r="J28">
-        <v>703.00247468605</v>
+        <v>751.6749580210935</v>
       </c>
       <c r="K28">
-        <v>2975.532442182043</v>
+        <v>3116.304206857375</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -1416,22 +1416,22 @@
         <v>179.142</v>
       </c>
       <c r="F29">
-        <v>54.97883273898449</v>
+        <v>53.33730623135822</v>
       </c>
       <c r="G29">
-        <v>241.708782610918</v>
+        <v>226.2057578125277</v>
       </c>
       <c r="H29">
-        <v>1768.689340077977</v>
+        <v>1673.871241610762</v>
       </c>
       <c r="I29">
-        <v>-378.2327504471486</v>
+        <v>-387.7469625372843</v>
       </c>
       <c r="J29">
-        <v>672.9543520870785</v>
+        <v>675.3890574701121</v>
       </c>
       <c r="K29">
-        <v>2899.649283887881</v>
+        <v>2813.726732111592</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -1451,22 +1451,22 @@
         <v>180.142</v>
       </c>
       <c r="F30">
-        <v>51.88955459019842</v>
+        <v>52.21927025257389</v>
       </c>
       <c r="G30">
-        <v>239.5073289918582</v>
+        <v>251.7655804354304</v>
       </c>
       <c r="H30">
-        <v>1722.712975312338</v>
+        <v>1674.306530425666</v>
       </c>
       <c r="I30">
-        <v>-328.3247071404134</v>
+        <v>-316.7822316170608</v>
       </c>
       <c r="J30">
-        <v>636.5445845501905</v>
+        <v>615.096372763426</v>
       </c>
       <c r="K30">
-        <v>2915.247892200683</v>
+        <v>2865.791220658121</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -1486,22 +1486,22 @@
         <v>181.142</v>
       </c>
       <c r="F31">
-        <v>50.04772469600682</v>
+        <v>50.43214257939344</v>
       </c>
       <c r="G31">
-        <v>257.2556670460789</v>
+        <v>269.5818093061578</v>
       </c>
       <c r="H31">
-        <v>1805.516428512992</v>
+        <v>1727.63871081457</v>
       </c>
       <c r="I31">
-        <v>-254.5834386335246</v>
+        <v>-276.0080615446675</v>
       </c>
       <c r="J31">
-        <v>592.2444816365851</v>
+        <v>613.3999567890432</v>
       </c>
       <c r="K31">
-        <v>2573.819471512153</v>
+        <v>2689.68620276044</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -1521,22 +1521,22 @@
         <v>182.142</v>
       </c>
       <c r="F32">
-        <v>53.25427369379215</v>
+        <v>48.7562925329474</v>
       </c>
       <c r="G32">
-        <v>291.023223291504</v>
+        <v>273.5966418007314</v>
       </c>
       <c r="H32">
-        <v>1704.944401204805</v>
+        <v>1819.0165348522</v>
       </c>
       <c r="I32">
-        <v>-209.1789425117553</v>
+        <v>-202.2505234053849</v>
       </c>
       <c r="J32">
-        <v>565.6955983002993</v>
+        <v>557.3347221627193</v>
       </c>
       <c r="K32">
-        <v>2471.113077441868</v>
+        <v>2532.993710294868</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1556,22 +1556,22 @@
         <v>183.142</v>
       </c>
       <c r="F33">
-        <v>51.60951452559441</v>
+        <v>52.06201134305792</v>
       </c>
       <c r="G33">
-        <v>308.0222645380433</v>
+        <v>296.4308731121355</v>
       </c>
       <c r="H33">
-        <v>1884.283051469589</v>
+        <v>1745.803802931671</v>
       </c>
       <c r="I33">
-        <v>-139.7867441939768</v>
+        <v>-147.2197962850838</v>
       </c>
       <c r="J33">
-        <v>475.4023502904676</v>
+        <v>483.858604033165</v>
       </c>
       <c r="K33">
-        <v>2368.046809848141</v>
+        <v>2301.346045597451</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1591,22 +1591,22 @@
         <v>184.142</v>
       </c>
       <c r="F34">
-        <v>47.34528362555248</v>
+        <v>50.14082461004448</v>
       </c>
       <c r="G34">
-        <v>314.7308148856957</v>
+        <v>313.5279935496488</v>
       </c>
       <c r="H34">
-        <v>1829.417634695316</v>
+        <v>1750.147648348628</v>
       </c>
       <c r="I34">
-        <v>-87.33732514590361</v>
+        <v>-85.09618868045328</v>
       </c>
       <c r="J34">
-        <v>459.8995958527228</v>
+        <v>429.7933209203087</v>
       </c>
       <c r="K34">
-        <v>2098.052594134122</v>
+        <v>2310.632585755099</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1626,22 +1626,22 @@
         <v>185.142</v>
       </c>
       <c r="F35">
-        <v>48.31525636163396</v>
+        <v>46.0733658020045</v>
       </c>
       <c r="G35">
-        <v>341.1997747688276</v>
+        <v>322.9600253345155</v>
       </c>
       <c r="H35">
-        <v>1865.515692618977</v>
+        <v>1791.000474898452</v>
       </c>
       <c r="I35">
-        <v>-19.55356138869061</v>
+        <v>-19.21056424364501</v>
       </c>
       <c r="J35">
-        <v>399.7879860515418</v>
+        <v>387.7141531304097</v>
       </c>
       <c r="K35">
-        <v>2043.033791130557</v>
+        <v>2096.235460571997</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -1661,22 +1661,22 @@
         <v>186.142</v>
       </c>
       <c r="F36">
-        <v>47.9820541549101</v>
+        <v>45.76305731345364</v>
       </c>
       <c r="G36">
-        <v>350.4494788510714</v>
+        <v>357.2368765334286</v>
       </c>
       <c r="H36">
-        <v>1827.87942234323</v>
+        <v>1904.50239351874</v>
       </c>
       <c r="I36">
-        <v>46.57108500796739</v>
+        <v>46.51559637850301</v>
       </c>
       <c r="J36">
-        <v>344.583921942844</v>
+        <v>329.8425408318749</v>
       </c>
       <c r="K36">
-        <v>1781.727455473822</v>
+        <v>1860.317127978568</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -1696,22 +1696,22 @@
         <v>187.142</v>
       </c>
       <c r="F37">
-        <v>45.09731160219227</v>
+        <v>48.58044053750084</v>
       </c>
       <c r="G37">
-        <v>364.2234799027078</v>
+        <v>367.0038421632219</v>
       </c>
       <c r="H37">
-        <v>1829.924034450143</v>
+        <v>1909.996459842622</v>
       </c>
       <c r="I37">
-        <v>117.4795756149022</v>
+        <v>119.2832202975852</v>
       </c>
       <c r="J37">
-        <v>289.7530968358571</v>
+        <v>297.880962833912</v>
       </c>
       <c r="K37">
-        <v>1651.412784805964</v>
+        <v>1554.363012181311</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -1731,22 +1731,22 @@
         <v>188.142</v>
       </c>
       <c r="F38">
-        <v>45.87453177037645</v>
+        <v>47.87094802072081</v>
       </c>
       <c r="G38">
-        <v>370.1267709732608</v>
+        <v>370.3737058128251</v>
       </c>
       <c r="H38">
-        <v>1798.95908345933</v>
+        <v>1778.132196450196</v>
       </c>
       <c r="I38">
-        <v>175.9138889546748</v>
+        <v>181.4201050972387</v>
       </c>
       <c r="J38">
-        <v>248.317187434782</v>
+        <v>247.1119267399546</v>
       </c>
       <c r="K38">
-        <v>1423.90752236477</v>
+        <v>1419.338634169049</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -1766,22 +1766,22 @@
         <v>189.142</v>
       </c>
       <c r="F39">
-        <v>46.29433965518361</v>
+        <v>43.36658615127396</v>
       </c>
       <c r="G39">
-        <v>402.6944782562855</v>
+        <v>413.6546892487448</v>
       </c>
       <c r="H39">
-        <v>1851.206436158444</v>
+        <v>1899.959401291086</v>
       </c>
       <c r="I39">
-        <v>264.9443596367176</v>
+        <v>254.3748402874533</v>
       </c>
       <c r="J39">
-        <v>200.4215685173877</v>
+        <v>199.5467927340206</v>
       </c>
       <c r="K39">
-        <v>1121.458906150492</v>
+        <v>1126.782274986116</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -1801,22 +1801,22 @@
         <v>190.142</v>
       </c>
       <c r="F40">
-        <v>44.28398675834151</v>
+        <v>45.04584778256977</v>
       </c>
       <c r="G40">
-        <v>424.8579990297394</v>
+        <v>400.9450755734498</v>
       </c>
       <c r="H40">
-        <v>1945.551795531691</v>
+        <v>1916.473631422219</v>
       </c>
       <c r="I40">
-        <v>338.1426083626387</v>
+        <v>343.5623400241739</v>
       </c>
       <c r="J40">
-        <v>154.6339287863561</v>
+        <v>145.4781116940243</v>
       </c>
       <c r="K40">
-        <v>923.8754755692763</v>
+        <v>876.1588449455982</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -1836,22 +1836,22 @@
         <v>191.142</v>
       </c>
       <c r="F41">
-        <v>43.09529204018646</v>
+        <v>43.40340290852091</v>
       </c>
       <c r="G41">
-        <v>422.0114322677269</v>
+        <v>425.0633731970608</v>
       </c>
       <c r="H41">
-        <v>1842.436953565128</v>
+        <v>1960.933964128345</v>
       </c>
       <c r="I41">
-        <v>409.7594611852846</v>
+        <v>409.5085527050268</v>
       </c>
       <c r="J41">
-        <v>99.22951728644993</v>
+        <v>104.9025147744887</v>
       </c>
       <c r="K41">
-        <v>603.9830335815494</v>
+        <v>611.2779609618581</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -1871,22 +1871,22 @@
         <v>192.142</v>
       </c>
       <c r="F42">
-        <v>41.42308159024961</v>
+        <v>44.60239454390886</v>
       </c>
       <c r="G42">
-        <v>451.0767208555068</v>
+        <v>455.0869656764777</v>
       </c>
       <c r="H42">
-        <v>1887.899946946858</v>
+        <v>1915.961923626275</v>
       </c>
       <c r="I42">
-        <v>486.248332786652</v>
+        <v>459.7030785168258</v>
       </c>
       <c r="J42">
-        <v>54.02098425532986</v>
+        <v>51.72161740542912</v>
       </c>
       <c r="K42">
-        <v>352.2416577735049</v>
+        <v>329.7415443563044</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -1906,22 +1906,22 @@
         <v>193.142</v>
       </c>
       <c r="F43">
-        <v>40.94049780836658</v>
+        <v>43.52039430577259</v>
       </c>
       <c r="G43">
-        <v>449.4484475720433</v>
+        <v>482.6925931276177</v>
       </c>
       <c r="H43">
-        <v>1828.616713207605</v>
+        <v>1832.403003288064</v>
       </c>
       <c r="I43">
-        <v>566.5312282438148</v>
+        <v>547.2161177808781</v>
       </c>
       <c r="J43">
-        <v>5.106665625632407</v>
+        <v>5.330426495986018</v>
       </c>
       <c r="K43">
-        <v>32.52477251700291</v>
+        <v>32.83485454306103</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -1941,22 +1941,22 @@
         <v>194.142</v>
       </c>
       <c r="F44">
-        <v>40.20439980903565</v>
+        <v>40.87413162982686</v>
       </c>
       <c r="G44">
-        <v>480.1195795282407</v>
+        <v>463.504637756233</v>
       </c>
       <c r="H44">
-        <v>1906.739739584293</v>
+        <v>1871.297327808872</v>
       </c>
       <c r="I44">
-        <v>656.5603547214143</v>
+        <v>614.3625099828304</v>
       </c>
       <c r="J44">
-        <v>-42.22046847973449</v>
+        <v>-41.31649181069199</v>
       </c>
       <c r="K44">
-        <v>-285.7479291971057</v>
+        <v>-277.0710636768971</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -1976,22 +1976,22 @@
         <v>195.142</v>
       </c>
       <c r="F45">
-        <v>40.42838464335591</v>
+        <v>42.23829574760496</v>
       </c>
       <c r="G45">
-        <v>478.7059581248508</v>
+        <v>476.4097235198659</v>
       </c>
       <c r="H45">
-        <v>1901.788017979361</v>
+        <v>1857.310214323243</v>
       </c>
       <c r="I45">
-        <v>701.5786474579725</v>
+        <v>685.8793407287022</v>
       </c>
       <c r="J45">
-        <v>-90.99818467143891</v>
+        <v>-90.30717769286512</v>
       </c>
       <c r="K45">
-        <v>-644.5381631292901</v>
+        <v>-598.8124295987121</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -2011,22 +2011,22 @@
         <v>196.142</v>
       </c>
       <c r="F46">
-        <v>41.21139599564639</v>
+        <v>38.8237859006212</v>
       </c>
       <c r="G46">
-        <v>523.4316137446856</v>
+        <v>491.6030217101444</v>
       </c>
       <c r="H46">
-        <v>1913.150652964208</v>
+        <v>1928.857597637229</v>
       </c>
       <c r="I46">
-        <v>839.119220671978</v>
+        <v>811.4575946788715</v>
       </c>
       <c r="J46">
-        <v>-146.2767629686283</v>
+        <v>-146.7638675541087</v>
       </c>
       <c r="K46">
-        <v>-937.3971890537339</v>
+        <v>-943.2066904837293</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -2046,22 +2046,22 @@
         <v>197.142</v>
       </c>
       <c r="F47">
-        <v>39.3496185815415</v>
+        <v>38.28913207638242</v>
       </c>
       <c r="G47">
-        <v>541.6402884223683</v>
+        <v>519.6616338551273</v>
       </c>
       <c r="H47">
-        <v>2006.010306802522</v>
+        <v>1973.373405443789</v>
       </c>
       <c r="I47">
-        <v>885.3045063531318</v>
+        <v>916.3901766443627</v>
       </c>
       <c r="J47">
-        <v>-184.9600209226935</v>
+        <v>-180.9012345010877</v>
       </c>
       <c r="K47">
-        <v>-1312.109859231414</v>
+        <v>-1348.840163315418</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -2081,22 +2081,22 @@
         <v>198.142</v>
       </c>
       <c r="F48">
-        <v>40.82249812121466</v>
+        <v>37.53281069064112</v>
       </c>
       <c r="G48">
-        <v>560.0998306588649</v>
+        <v>563.9600858786091</v>
       </c>
       <c r="H48">
-        <v>2020.226098832854</v>
+        <v>1917.468416267768</v>
       </c>
       <c r="I48">
-        <v>959.3549219712393</v>
+        <v>978.2320207221345</v>
       </c>
       <c r="J48">
-        <v>-234.4289409861584</v>
+        <v>-231.477754321351</v>
       </c>
       <c r="K48">
-        <v>-1621.532817980245</v>
+        <v>-1726.489230938102</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -2116,22 +2116,22 @@
         <v>199.142</v>
       </c>
       <c r="F49">
-        <v>40.6010745762504</v>
+        <v>38.42005502307794</v>
       </c>
       <c r="G49">
-        <v>536.2458864723437</v>
+        <v>545.7853024745325</v>
       </c>
       <c r="H49">
-        <v>1892.722065976124</v>
+        <v>1944.730165480493</v>
       </c>
       <c r="I49">
-        <v>1032.742843181027</v>
+        <v>1045.130284183878</v>
       </c>
       <c r="J49">
-        <v>-282.1458073088526</v>
+        <v>-287.1314096143085</v>
       </c>
       <c r="K49">
-        <v>-2190.58780912195</v>
+        <v>-2197.954492636105</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -2151,22 +2151,22 @@
         <v>200.142</v>
       </c>
       <c r="F50">
-        <v>38.17697292523782</v>
+        <v>36.84872009139391</v>
       </c>
       <c r="G50">
-        <v>574.9364786582992</v>
+        <v>599.7757435309867</v>
       </c>
       <c r="H50">
-        <v>2035.882148523459</v>
+        <v>1924.504116615272</v>
       </c>
       <c r="I50">
-        <v>1108.820273222567</v>
+        <v>1125.958780606844</v>
       </c>
       <c r="J50">
-        <v>-341.6085699759396</v>
+        <v>-334.6566870599441</v>
       </c>
       <c r="K50">
-        <v>-2610.265234962552</v>
+        <v>-2584.502440589505</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -2186,22 +2186,22 @@
         <v>201.142</v>
       </c>
       <c r="F51">
-        <v>39.42065492872396</v>
+        <v>37.92168421220104</v>
       </c>
       <c r="G51">
-        <v>588.4629432111739</v>
+        <v>592.5201871316137</v>
       </c>
       <c r="H51">
-        <v>1981.208792822093</v>
+        <v>1979.433848734137</v>
       </c>
       <c r="I51">
-        <v>1313.110517383984</v>
+        <v>1276.77439085193</v>
       </c>
       <c r="J51">
-        <v>-380.7214312362507</v>
+        <v>-401.0867208886881</v>
       </c>
       <c r="K51">
-        <v>-2901.578596016467</v>
+        <v>-3025.547584315339</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -2221,22 +2221,22 @@
         <v>202.142</v>
       </c>
       <c r="F52">
-        <v>37.07521193913382</v>
+        <v>37.82667346426751</v>
       </c>
       <c r="G52">
-        <v>583.4569283913668</v>
+        <v>636.7904238735152</v>
       </c>
       <c r="H52">
-        <v>1940.366379490185</v>
+        <v>1903.253897848002</v>
       </c>
       <c r="I52">
-        <v>1360.129810134483</v>
+        <v>1370.623432088769</v>
       </c>
       <c r="J52">
-        <v>-424.4563269972321</v>
+        <v>-422.0925262760254</v>
       </c>
       <c r="K52">
-        <v>-3377.078060702713</v>
+        <v>-3345.599306802467</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -2256,22 +2256,22 @@
         <v>203.142</v>
       </c>
       <c r="F53">
-        <v>38.83400658597395</v>
+        <v>35.3383554978638</v>
       </c>
       <c r="G53">
-        <v>638.9643275865748</v>
+        <v>646.0394759885413</v>
       </c>
       <c r="H53">
-        <v>2047.752028824929</v>
+        <v>1934.518130015233</v>
       </c>
       <c r="I53">
-        <v>1523.521857821981</v>
+        <v>1409.556288964815</v>
       </c>
       <c r="J53">
-        <v>-488.6362706067094</v>
+        <v>-498.5278426409673</v>
       </c>
       <c r="K53">
-        <v>-3773.782134042699</v>
+        <v>-3822.718879034408</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -2291,22 +2291,22 @@
         <v>204.142</v>
       </c>
       <c r="F54">
-        <v>35.62965124855351</v>
+        <v>38.09412713102647</v>
       </c>
       <c r="G54">
-        <v>673.8718857143165</v>
+        <v>628.8303479329243</v>
       </c>
       <c r="H54">
-        <v>2067.012289444879</v>
+        <v>2008.138898787899</v>
       </c>
       <c r="I54">
-        <v>1540.985167237588</v>
+        <v>1506.016397135462</v>
       </c>
       <c r="J54">
-        <v>-542.5521678798002</v>
+        <v>-535.8198572770362</v>
       </c>
       <c r="K54">
-        <v>-4157.220140225651</v>
+        <v>-4445.006205274697</v>
       </c>
     </row>
   </sheetData>
